--- a/LeporidaeMNE_V1.xlsx
+++ b/LeporidaeMNE_V1.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8026,7 +8026,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="45">
     <pivotField showAll="0"/>
@@ -9224,8 +9224,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AU137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W131"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S112" sqref="S112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
